--- a/docs/WMX3API_CleanedData.xlsx
+++ b/docs/WMX3API_CleanedData.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18160"/>
+    <workbookView windowHeight="18200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$1056</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -11300,11 +11303,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -35606,6 +35611,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/docs/WMX3API_CleanedData.xlsx
+++ b/docs/WMX3API_CleanedData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18200"/>
+    <workbookView windowWidth="30080" windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11308,8 +11308,8 @@
   </sheetPr>
   <dimension ref="A1:G1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="C378" workbookViewId="0">
+      <selection activeCell="G409" sqref="G409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>

--- a/docs/WMX3API_CleanedData.xlsx
+++ b/docs/WMX3API_CleanedData.xlsx
@@ -11308,8 +11308,8 @@
   </sheetPr>
   <dimension ref="A1:G1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="C378" workbookViewId="0">
-      <selection activeCell="G409" sqref="G409"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="B100" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>

--- a/docs/WMX3API_CleanedData.xlsx
+++ b/docs/WMX3API_CleanedData.xlsx
@@ -206,7 +206,7 @@
     <t>def StartRecordBufferChannel(channel) </t>
   </si>
   <si>
-    <t xml:space="preserve"> Start recording APIs to the API buffer channel.  </t>
+    <t xml:space="preserve">Start recording APIs to the API buffer channel.  </t>
   </si>
   <si>
     <t>12</t>
@@ -242,7 +242,7 @@
     <t>def Execute(channel) </t>
   </si>
   <si>
-    <t xml:space="preserve">Execute an API buffer. </t>
+    <t>EnableEvent</t>
   </si>
   <si>
     <t>15</t>
@@ -10329,7 +10329,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10340,6 +10340,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF795E26"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10822,16 +10829,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10840,122 +10844,128 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -11308,8 +11318,8 @@
   </sheetPr>
   <dimension ref="A1:G1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="B100" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="A573" workbookViewId="0">
+      <selection activeCell="C544" sqref="C544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -11662,7 +11672,7 @@
       <c r="F15" t="s">
         <v>10</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -15066,7 +15076,7 @@
       <c r="F163" t="s">
         <v>231</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="G163" s="3" t="s">
         <v>606</v>
       </c>
     </row>
@@ -16193,7 +16203,7 @@
       <c r="F212" t="s">
         <v>231</v>
       </c>
-      <c r="G212" s="2" t="s">
+      <c r="G212" s="3" t="s">
         <v>795</v>
       </c>
     </row>
@@ -16400,7 +16410,7 @@
       <c r="F221" t="s">
         <v>231</v>
       </c>
-      <c r="G221" s="2" t="s">
+      <c r="G221" s="3" t="s">
         <v>831</v>
       </c>
     </row>
@@ -16423,7 +16433,7 @@
       <c r="F222" t="s">
         <v>231</v>
       </c>
-      <c r="G222" s="2" t="s">
+      <c r="G222" s="3" t="s">
         <v>835</v>
       </c>
     </row>
@@ -16446,7 +16456,7 @@
       <c r="F223" t="s">
         <v>231</v>
       </c>
-      <c r="G223" s="2" t="s">
+      <c r="G223" s="3" t="s">
         <v>839</v>
       </c>
     </row>
@@ -16469,7 +16479,7 @@
       <c r="F224" t="s">
         <v>231</v>
       </c>
-      <c r="G224" s="2" t="s">
+      <c r="G224" s="3" t="s">
         <v>843</v>
       </c>
     </row>
@@ -16492,7 +16502,7 @@
       <c r="F225" t="s">
         <v>231</v>
       </c>
-      <c r="G225" s="2" t="s">
+      <c r="G225" s="3" t="s">
         <v>847</v>
       </c>
     </row>
@@ -20011,7 +20021,7 @@
       <c r="F378" t="s">
         <v>231</v>
       </c>
-      <c r="G378" s="2" t="s">
+      <c r="G378" s="3" t="s">
         <v>1372</v>
       </c>
     </row>
@@ -20954,7 +20964,7 @@
       <c r="F419" t="s">
         <v>1454</v>
       </c>
-      <c r="G419" s="2" t="s">
+      <c r="G419" s="3" t="s">
         <v>1525</v>
       </c>
     </row>
@@ -23852,7 +23862,7 @@
       <c r="F545" t="s">
         <v>1919</v>
       </c>
-      <c r="G545" s="2" t="s">
+      <c r="G545" s="3" t="s">
         <v>1935</v>
       </c>
     </row>
@@ -31120,7 +31130,7 @@
       <c r="F861" t="s">
         <v>2873</v>
       </c>
-      <c r="G861" s="2" t="s">
+      <c r="G861" s="3" t="s">
         <v>2927</v>
       </c>
     </row>
@@ -31465,7 +31475,7 @@
       <c r="F876" t="s">
         <v>2873</v>
       </c>
-      <c r="G876" s="2" t="s">
+      <c r="G876" s="3" t="s">
         <v>2977</v>
       </c>
     </row>
@@ -32362,7 +32372,7 @@
       <c r="F915" t="s">
         <v>2873</v>
       </c>
-      <c r="G915" s="2" t="s">
+      <c r="G915" s="3" t="s">
         <v>3087</v>
       </c>
     </row>
@@ -33995,7 +34005,7 @@
       <c r="F986" t="s">
         <v>2873</v>
       </c>
-      <c r="G986" s="2" t="s">
+      <c r="G986" s="3" t="s">
         <v>3061</v>
       </c>
     </row>
@@ -34294,7 +34304,7 @@
       <c r="F999" t="s">
         <v>2873</v>
       </c>
-      <c r="G999" s="2" t="s">
+      <c r="G999" s="3" t="s">
         <v>3087</v>
       </c>
     </row>
@@ -34800,7 +34810,7 @@
       <c r="F1021" t="s">
         <v>3305</v>
       </c>
-      <c r="G1021" s="2" t="s">
+      <c r="G1021" s="3" t="s">
         <v>3328</v>
       </c>
     </row>
@@ -34892,7 +34902,7 @@
       <c r="F1025" t="s">
         <v>3305</v>
       </c>
-      <c r="G1025" s="2" t="s">
+      <c r="G1025" s="3" t="s">
         <v>3342</v>
       </c>
     </row>
@@ -34915,7 +34925,7 @@
       <c r="F1026" t="s">
         <v>3305</v>
       </c>
-      <c r="G1026" s="2" t="s">
+      <c r="G1026" s="3" t="s">
         <v>3346</v>
       </c>
     </row>
@@ -34938,7 +34948,7 @@
       <c r="F1027" t="s">
         <v>3305</v>
       </c>
-      <c r="G1027" s="2" t="s">
+      <c r="G1027" s="3" t="s">
         <v>3342</v>
       </c>
     </row>
@@ -34961,7 +34971,7 @@
       <c r="F1028" t="s">
         <v>3305</v>
       </c>
-      <c r="G1028" s="2" t="s">
+      <c r="G1028" s="3" t="s">
         <v>3346</v>
       </c>
     </row>
@@ -34984,7 +34994,7 @@
       <c r="F1029" t="s">
         <v>3305</v>
       </c>
-      <c r="G1029" s="2" t="s">
+      <c r="G1029" s="3" t="s">
         <v>3342</v>
       </c>
     </row>
@@ -35007,7 +35017,7 @@
       <c r="F1030" t="s">
         <v>3305</v>
       </c>
-      <c r="G1030" s="2" t="s">
+      <c r="G1030" s="3" t="s">
         <v>3346</v>
       </c>
     </row>
@@ -35030,7 +35040,7 @@
       <c r="F1031" t="s">
         <v>3305</v>
       </c>
-      <c r="G1031" s="2" t="s">
+      <c r="G1031" s="3" t="s">
         <v>3342</v>
       </c>
     </row>
@@ -35053,7 +35063,7 @@
       <c r="F1032" t="s">
         <v>3305</v>
       </c>
-      <c r="G1032" s="2" t="s">
+      <c r="G1032" s="3" t="s">
         <v>3346</v>
       </c>
     </row>
@@ -35306,7 +35316,7 @@
       <c r="F1043" t="s">
         <v>3305</v>
       </c>
-      <c r="G1043" s="2" t="s">
+      <c r="G1043" s="3" t="s">
         <v>3393</v>
       </c>
     </row>
